--- a/TXT/Reprise_données_Demandes/reprise_de_données-Benef.xlsx
+++ b/TXT/Reprise_données_Demandes/reprise_de_données-Benef.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TMAconnect\txt\Reprise données Demandes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TMAconnect\txt\Reprise_données_Demandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB0A870-49F1-426F-A15D-3FFF20215ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58971650-20E4-482A-B8A4-4CDDAE2E2C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFA479FD-4A16-4528-9DA1-AEFD138866D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Utilisateur" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Bénéficiaire" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,43 +53,43 @@
     <t>Remarque</t>
   </si>
   <si>
-    <t>Récup sans transformation</t>
-  </si>
-  <si>
     <t>c_benef (NuméroAuto)</t>
   </si>
   <si>
-    <t>IdBenef (NuméroAuto)</t>
-  </si>
-  <si>
     <t>Recup sans transformation. Dans la cible c'est une séquence</t>
   </si>
   <si>
-    <t>lib_Benef (Texte court 50)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ser_benef (Numérique) </t>
   </si>
   <si>
-    <t>Recup avec transformation</t>
-  </si>
-  <si>
-    <t>Ser (Texte court 5)</t>
-  </si>
-  <si>
     <t>actif (Oui/Non)</t>
   </si>
   <si>
-    <t>actif (Varchar 3)</t>
-  </si>
-  <si>
-    <t>lbl_benef (Varchar 50)</t>
-  </si>
-  <si>
     <t>TC_Benef</t>
   </si>
   <si>
     <t>TMA_D_BENEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recup avec transformation, C'est une clé étrangère </t>
+  </si>
+  <si>
+    <t>IdBenef (int AUTO INCREMENT)</t>
+  </si>
+  <si>
+    <t>lib_Benef (Texte court (50) )</t>
+  </si>
+  <si>
+    <t>lbl_benef (Varchar (50) )</t>
+  </si>
+  <si>
+    <t>Ser (Texte court (5) )</t>
+  </si>
+  <si>
+    <t>actif (Varchar (3) )</t>
+  </si>
+  <si>
+    <t>Récup sans transformation,</t>
   </si>
 </sst>
 </file>
@@ -554,7 +553,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,50 +595,50 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -647,19 +646,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -670,16 +669,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB0D569-0A44-41AC-9C92-446196868A69}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>